--- a/Code/Results/Cases/Case_4_211/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_211/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.70591123714139</v>
+        <v>13.24945670553124</v>
       </c>
       <c r="C2">
-        <v>12.24086066556004</v>
+        <v>6.931691617177907</v>
       </c>
       <c r="D2">
-        <v>10.52244417123791</v>
+        <v>14.53418642754317</v>
       </c>
       <c r="E2">
-        <v>10.29143962962122</v>
+        <v>15.73022987164546</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26.13521913262952</v>
+        <v>31.77039380191395</v>
       </c>
       <c r="H2">
-        <v>9.237385383163765</v>
+        <v>14.94847978023523</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.217887406181474</v>
+        <v>9.221411298107018</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.80120311283298</v>
+        <v>17.3298259617475</v>
       </c>
       <c r="N2">
-        <v>11.86305049833643</v>
+        <v>17.70740358767744</v>
       </c>
       <c r="O2">
-        <v>15.76134035906648</v>
+        <v>23.17966220647659</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.45742709164036</v>
+        <v>12.78469178007335</v>
       </c>
       <c r="C3">
-        <v>11.50181478732601</v>
+        <v>6.514330546989612</v>
       </c>
       <c r="D3">
-        <v>10.20564966250524</v>
+        <v>14.51853349932995</v>
       </c>
       <c r="E3">
-        <v>10.12042393011313</v>
+        <v>15.74717638812273</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.25907314103727</v>
+        <v>31.73654461844281</v>
       </c>
       <c r="H3">
-        <v>9.210576479584809</v>
+        <v>14.98965538811909</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.254572794604083</v>
+        <v>9.242858625980887</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.0523171464205</v>
+        <v>17.19200000480822</v>
       </c>
       <c r="N3">
-        <v>12.02669335345727</v>
+        <v>17.76131818696163</v>
       </c>
       <c r="O3">
-        <v>15.53315794256546</v>
+        <v>23.22690651297395</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.64547051327986</v>
+        <v>12.49229289391237</v>
       </c>
       <c r="C4">
-        <v>11.02307247326868</v>
+        <v>6.242824504779835</v>
       </c>
       <c r="D4">
-        <v>10.01314066422325</v>
+        <v>14.51192525340317</v>
       </c>
       <c r="E4">
-        <v>10.02094759839208</v>
+        <v>15.76049987877704</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>24.73707140964266</v>
+        <v>31.7267528106048</v>
       </c>
       <c r="H4">
-        <v>9.201258668238957</v>
+        <v>15.01770552241795</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.278875702011978</v>
+        <v>9.256907866277395</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.57706177075476</v>
+        <v>17.10964036018673</v>
       </c>
       <c r="N4">
-        <v>12.130480281752</v>
+        <v>17.79623308816923</v>
       </c>
       <c r="O4">
-        <v>15.40690760360963</v>
+        <v>23.26159497780436</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.30311876011885</v>
+        <v>12.37155408816552</v>
       </c>
       <c r="C5">
-        <v>10.82173878589994</v>
+        <v>6.128373176147104</v>
       </c>
       <c r="D5">
-        <v>9.935297622623045</v>
+        <v>14.50998993690901</v>
       </c>
       <c r="E5">
-        <v>9.981811813627633</v>
+        <v>15.7666628728418</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>24.52861649781999</v>
+        <v>31.7255267115056</v>
       </c>
       <c r="H5">
-        <v>9.199197622435101</v>
+        <v>15.02983133730265</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.289218793322138</v>
+        <v>9.262854836129467</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.37973601334699</v>
+        <v>17.07667767393577</v>
       </c>
       <c r="N5">
-        <v>12.17360780093928</v>
+        <v>17.81091765257753</v>
       </c>
       <c r="O5">
-        <v>15.35888911711892</v>
+        <v>23.27715544443044</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.24557684329123</v>
+        <v>12.35141555796186</v>
       </c>
       <c r="C6">
-        <v>10.7879318055817</v>
+        <v>6.109139298003861</v>
       </c>
       <c r="D6">
-        <v>9.922411492867568</v>
+        <v>14.50971440007858</v>
       </c>
       <c r="E6">
-        <v>9.975398266669492</v>
+        <v>15.76773052726407</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>24.49426761960925</v>
+        <v>31.72549001377168</v>
       </c>
       <c r="H6">
-        <v>9.198958458174115</v>
+        <v>15.03188677772154</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.290962585301615</v>
+        <v>9.263855732844503</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.34675685882905</v>
+        <v>17.07124130399428</v>
       </c>
       <c r="N6">
-        <v>12.18081948672596</v>
+        <v>17.81338361307305</v>
       </c>
       <c r="O6">
-        <v>15.35112100795016</v>
+        <v>23.27982517613977</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.64089997029073</v>
+        <v>12.49067072526217</v>
       </c>
       <c r="C7">
-        <v>11.02038243353462</v>
+        <v>6.241296366693295</v>
       </c>
       <c r="D7">
-        <v>10.01208825480453</v>
+        <v>14.51189608259482</v>
       </c>
       <c r="E7">
-        <v>10.02041411176515</v>
+        <v>15.7605800253892</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>24.73424251339896</v>
+        <v>31.72672508508296</v>
       </c>
       <c r="H7">
-        <v>9.201223923427008</v>
+        <v>15.017866241993</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.279013422874682</v>
+        <v>9.256987170662709</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.57441503817214</v>
+        <v>17.10919334787274</v>
       </c>
       <c r="N7">
-        <v>12.13105853742657</v>
+        <v>17.79642927977709</v>
       </c>
       <c r="O7">
-        <v>15.40624620354437</v>
+        <v>23.26179906863571</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.28481533317533</v>
+        <v>13.09077033324556</v>
       </c>
       <c r="C8">
-        <v>11.99123570069595</v>
+        <v>6.790961166579973</v>
       </c>
       <c r="D8">
-        <v>10.4128573209743</v>
+        <v>14.52816776056279</v>
       </c>
       <c r="E8">
-        <v>10.2313340460363</v>
+        <v>15.735467247391</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>25.82996444396576</v>
+        <v>31.75644226214754</v>
       </c>
       <c r="H8">
-        <v>9.226623389384862</v>
+        <v>14.96210206564654</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.230162773026327</v>
+        <v>9.228623820352407</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.54631455299979</v>
+        <v>17.28185138214938</v>
       </c>
       <c r="N8">
-        <v>11.91878820390438</v>
+        <v>17.72561806706177</v>
       </c>
       <c r="O8">
-        <v>15.67975835712234</v>
+        <v>23.19477098651298</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.15133537118804</v>
+        <v>14.20454493484585</v>
       </c>
       <c r="C9">
-        <v>13.69617350161396</v>
+        <v>7.74721714579625</v>
       </c>
       <c r="D9">
-        <v>11.21045655028946</v>
+        <v>14.58376867579047</v>
       </c>
       <c r="E9">
-        <v>10.68816574974048</v>
+        <v>15.70938109779845</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>28.09436619456409</v>
+        <v>31.90178996949284</v>
       </c>
       <c r="H9">
-        <v>9.335725045341144</v>
+        <v>14.8747521748539</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.148843942007022</v>
+        <v>9.179972486580514</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.32173625560706</v>
+        <v>17.63706424893988</v>
       </c>
       <c r="N9">
-        <v>11.52876658990526</v>
+        <v>17.60108075567433</v>
       </c>
       <c r="O9">
-        <v>16.32792759702082</v>
+        <v>23.10854962499131</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.04380828668825</v>
+        <v>14.9759075274948</v>
       </c>
       <c r="C10">
-        <v>14.82730307212307</v>
+        <v>8.375091116827914</v>
       </c>
       <c r="D10">
-        <v>11.7984669498145</v>
+        <v>14.6388526431153</v>
       </c>
       <c r="E10">
-        <v>11.04917570554665</v>
+        <v>15.70433121979547</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>29.81498920337746</v>
+        <v>32.06127207697141</v>
       </c>
       <c r="H10">
-        <v>9.455497243077774</v>
+        <v>14.8240419817075</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.098481612111018</v>
+        <v>9.148453178649016</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.67722433637609</v>
+        <v>17.90631980182479</v>
       </c>
       <c r="N10">
-        <v>11.25825903286939</v>
+        <v>17.51824934206643</v>
       </c>
       <c r="O10">
-        <v>16.8742213363596</v>
+        <v>23.07295155968842</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.85932687311598</v>
+        <v>15.31514709252121</v>
       </c>
       <c r="C11">
-        <v>15.31564806141516</v>
+        <v>8.644475139881342</v>
       </c>
       <c r="D11">
-        <v>12.06549887750253</v>
+        <v>14.66694700039253</v>
       </c>
       <c r="E11">
-        <v>11.21869822590407</v>
+        <v>15.70509382414728</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>30.60769324503431</v>
+        <v>32.14512075129784</v>
       </c>
       <c r="H11">
-        <v>9.519294320667115</v>
+        <v>14.80390659432912</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.077744384171261</v>
+        <v>9.135026639148213</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.30729124678704</v>
+        <v>18.03020284075776</v>
       </c>
       <c r="N11">
-        <v>11.13872116585999</v>
+        <v>17.48243526676477</v>
       </c>
       <c r="O11">
-        <v>17.13821561956874</v>
+        <v>23.06281185375862</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.16169799845573</v>
+        <v>15.44182769476226</v>
       </c>
       <c r="C12">
-        <v>15.4968228856644</v>
+        <v>8.74414883308606</v>
       </c>
       <c r="D12">
-        <v>12.1664885981282</v>
+        <v>14.67801665040653</v>
       </c>
       <c r="E12">
-        <v>11.28363552311889</v>
+        <v>15.70582172271298</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>30.90914197978008</v>
+        <v>32.17847978429269</v>
       </c>
       <c r="H12">
-        <v>9.544847110358926</v>
+        <v>14.79670432573237</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.07021681348861</v>
+        <v>9.130073096779041</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.54108148699549</v>
+        <v>18.07728046837286</v>
       </c>
       <c r="N12">
-        <v>11.09396742851725</v>
+        <v>17.46914079873826</v>
       </c>
       <c r="O12">
-        <v>17.24042217780394</v>
+        <v>23.05984432373402</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.09686248373216</v>
+        <v>15.41462556350353</v>
       </c>
       <c r="C13">
-        <v>15.45797010445107</v>
+        <v>8.722786216388858</v>
       </c>
       <c r="D13">
-        <v>12.14474531499556</v>
+        <v>14.6756135338914</v>
       </c>
       <c r="E13">
-        <v>11.26961735879729</v>
+        <v>15.70564544352069</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>30.84416545015816</v>
+        <v>32.17122414179639</v>
       </c>
       <c r="H13">
-        <v>9.539280990008377</v>
+        <v>14.79823665721873</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.071823334549547</v>
+        <v>9.131134118453964</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.49094307691268</v>
+        <v>18.06713464414305</v>
       </c>
       <c r="N13">
-        <v>11.10358301244459</v>
+        <v>17.47199211419721</v>
       </c>
       <c r="O13">
-        <v>17.21831048979595</v>
+        <v>23.06044462519634</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.88433190338687</v>
+        <v>15.32560545638383</v>
       </c>
       <c r="C14">
-        <v>15.33062846751216</v>
+        <v>8.652722173666486</v>
       </c>
       <c r="D14">
-        <v>12.07381028481767</v>
+        <v>14.66784910523596</v>
       </c>
       <c r="E14">
-        <v>11.22402587129204</v>
+        <v>15.70514491415857</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>30.63246901462967</v>
+        <v>32.14783311582118</v>
       </c>
       <c r="H14">
-        <v>9.5213683114725</v>
+        <v>14.80330558610528</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.077118492870815</v>
+        <v>9.134616488644646</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.32662116796133</v>
+        <v>18.03407282377475</v>
       </c>
       <c r="N14">
-        <v>11.13502892715228</v>
+        <v>17.48133616557514</v>
       </c>
       <c r="O14">
-        <v>17.14657931209256</v>
+        <v>23.06255022668682</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.75331340043214</v>
+        <v>15.27084307853034</v>
       </c>
       <c r="C15">
-        <v>15.25214022404617</v>
+        <v>8.609501689604116</v>
       </c>
       <c r="D15">
-        <v>12.03034195823626</v>
+        <v>14.66314910985219</v>
       </c>
       <c r="E15">
-        <v>11.19619597295468</v>
+        <v>15.70489548113558</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>30.50295972667907</v>
+        <v>32.13371419310506</v>
       </c>
       <c r="H15">
-        <v>9.510579457282718</v>
+        <v>14.80646550486215</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.080404672461347</v>
+        <v>9.136766565358721</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.225345854281</v>
+        <v>18.01384205419836</v>
       </c>
       <c r="N15">
-        <v>11.15435746328991</v>
+        <v>17.48709448474142</v>
       </c>
       <c r="O15">
-        <v>17.10293359780916</v>
+        <v>23.06395358733205</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.98960564624536</v>
+        <v>14.95349350770363</v>
       </c>
       <c r="C16">
-        <v>14.79486255702426</v>
+        <v>8.357159327422261</v>
       </c>
       <c r="D16">
-        <v>11.78100089807436</v>
+        <v>14.63707723502574</v>
       </c>
       <c r="E16">
-        <v>11.03820194556169</v>
+        <v>15.70434288339625</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>29.76336999897056</v>
+        <v>32.05601831588091</v>
       </c>
       <c r="H16">
-        <v>9.451520088579121</v>
+        <v>14.82541696587131</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.099881624543171</v>
+        <v>9.149348954569282</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.6353722790258</v>
+        <v>17.89824887075828</v>
       </c>
       <c r="N16">
-        <v>11.2661424288914</v>
+        <v>17.5206273600583</v>
       </c>
       <c r="O16">
-        <v>16.85728126262812</v>
+        <v>23.07373618405859</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.50952741179912</v>
+        <v>14.75574464270238</v>
       </c>
       <c r="C17">
-        <v>14.50763509966373</v>
+        <v>8.198194802401696</v>
       </c>
       <c r="D17">
-        <v>11.62787249233635</v>
+        <v>14.6218567831963</v>
       </c>
       <c r="E17">
-        <v>10.942620490009</v>
+        <v>15.70478702562093</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>29.31208344913884</v>
+        <v>32.01123697938748</v>
       </c>
       <c r="H17">
-        <v>9.417713889190086</v>
+        <v>14.83779486883489</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.11239533496914</v>
+        <v>9.157301140692931</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.26481715549312</v>
+        <v>17.82766912398725</v>
       </c>
       <c r="N17">
-        <v>11.33562397024564</v>
+        <v>17.54167610958964</v>
       </c>
       <c r="O17">
-        <v>16.71055591846892</v>
+        <v>23.08128937197279</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.22912322605266</v>
+        <v>14.64091294018505</v>
       </c>
       <c r="C18">
-        <v>14.33996077231615</v>
+        <v>8.10523402390748</v>
       </c>
       <c r="D18">
-        <v>11.53975723607611</v>
+        <v>14.6133885552446</v>
       </c>
       <c r="E18">
-        <v>10.88814423228543</v>
+        <v>15.70533055722778</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>29.05346305722239</v>
+        <v>31.98654473654445</v>
       </c>
       <c r="H18">
-        <v>9.399142767676192</v>
+        <v>14.84519032848961</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.119796585659778</v>
+        <v>9.161960864546645</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.04849277536357</v>
+        <v>17.78720715611181</v>
       </c>
       <c r="N18">
-        <v>11.37591845202202</v>
+        <v>17.55395851171429</v>
       </c>
       <c r="O18">
-        <v>16.62762025669181</v>
+        <v>23.08620353721628</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.13344650372237</v>
+        <v>14.60184882482836</v>
       </c>
       <c r="C19">
-        <v>14.28276467351893</v>
+        <v>8.073496633699468</v>
       </c>
       <c r="D19">
-        <v>11.50991819607277</v>
+        <v>14.61057067455327</v>
       </c>
       <c r="E19">
-        <v>10.86978593065021</v>
+        <v>15.70556408734331</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>28.96606704061848</v>
+        <v>31.9783677315074</v>
       </c>
       <c r="H19">
-        <v>9.393003189833236</v>
+        <v>14.8477416843854</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.122337136755005</v>
+        <v>9.163553319112287</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.97469906134481</v>
+        <v>17.77353145009333</v>
       </c>
       <c r="N19">
-        <v>11.38961806756247</v>
+        <v>17.55814732757712</v>
       </c>
       <c r="O19">
-        <v>16.59978949621854</v>
+        <v>23.08796519087189</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.56107454886254</v>
+        <v>14.77690915077335</v>
       </c>
       <c r="C20">
-        <v>14.53846634035346</v>
+        <v>8.215275065043553</v>
       </c>
       <c r="D20">
-        <v>11.6441778921706</v>
+        <v>14.62344744807141</v>
       </c>
       <c r="E20">
-        <v>10.95274372838828</v>
+        <v>15.70470993708845</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>29.36002690698976</v>
+        <v>32.01589394378112</v>
       </c>
       <c r="H20">
-        <v>9.421221827948624</v>
+        <v>14.83644864705499</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.1110420587318</v>
+        <v>9.156445735399547</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.30459315594154</v>
+        <v>17.83516888196758</v>
       </c>
       <c r="N20">
-        <v>11.3281932895379</v>
+        <v>17.53941725420432</v>
       </c>
       <c r="O20">
-        <v>16.72602421086534</v>
+        <v>23.08042633980791</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.9469316548804</v>
+        <v>15.35180196239125</v>
       </c>
       <c r="C21">
-        <v>15.36813341140691</v>
+        <v>8.67336508255168</v>
       </c>
       <c r="D21">
-        <v>12.09464959191722</v>
+        <v>14.67011805890918</v>
       </c>
       <c r="E21">
-        <v>11.23739717840531</v>
+        <v>15.70528002249162</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>30.69461610816184</v>
+        <v>32.15466015790989</v>
       </c>
       <c r="H21">
-        <v>9.526591428877742</v>
+        <v>14.80180524437644</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.075554244850943</v>
+        <v>9.13359008478163</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.37501628909119</v>
+        <v>18.04377966194361</v>
       </c>
       <c r="N21">
-        <v>11.1257785204184</v>
+        <v>17.47858433662106</v>
       </c>
       <c r="O21">
-        <v>17.16758768975413</v>
+        <v>23.06190808029304</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.81512327074448</v>
+        <v>15.7171003843239</v>
       </c>
       <c r="C22">
-        <v>15.8885190322011</v>
+        <v>8.959137236163164</v>
       </c>
       <c r="D22">
-        <v>12.38828225823521</v>
+        <v>14.703128766775</v>
       </c>
       <c r="E22">
-        <v>11.4277570565607</v>
+        <v>15.70821153413186</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>31.57419141316778</v>
+        <v>32.2547106447409</v>
       </c>
       <c r="H22">
-        <v>9.603607668096299</v>
+        <v>14.7816271407782</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.05426292477023</v>
+        <v>9.119414838134237</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.04664056265229</v>
+        <v>18.18106904522764</v>
       </c>
       <c r="N22">
-        <v>10.99648180437334</v>
+        <v>17.44038559446144</v>
       </c>
       <c r="O22">
-        <v>17.46922187198176</v>
+        <v>23.05488929144638</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.35516221632246</v>
+        <v>15.52311945120581</v>
       </c>
       <c r="C23">
-        <v>15.61277099760999</v>
+        <v>8.807860945543542</v>
       </c>
       <c r="D23">
-        <v>12.23165432888658</v>
+        <v>14.68528279425234</v>
       </c>
       <c r="E23">
-        <v>11.32576861801022</v>
+        <v>15.70641314331269</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>31.10411949615761</v>
+        <v>32.20046202838359</v>
       </c>
       <c r="H23">
-        <v>9.561738997887677</v>
+        <v>14.79217092623668</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.065447980821211</v>
+        <v>9.12691079063781</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.69071760028961</v>
+        <v>18.10771978227553</v>
       </c>
       <c r="N23">
-        <v>11.06521315961131</v>
+        <v>17.46063059527936</v>
       </c>
       <c r="O23">
-        <v>17.30703697488488</v>
+        <v>23.05816977693841</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.53778380154182</v>
+        <v>14.76734422944523</v>
       </c>
       <c r="C24">
-        <v>14.5245354599906</v>
+        <v>8.207557968312425</v>
       </c>
       <c r="D24">
-        <v>11.63680646417304</v>
+        <v>14.6227274289986</v>
       </c>
       <c r="E24">
-        <v>10.94816553196927</v>
+        <v>15.70474389107266</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>29.33834907053058</v>
+        <v>32.01378524838543</v>
       </c>
       <c r="H24">
-        <v>9.419633200265864</v>
+        <v>14.8370564041518</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.111653231258571</v>
+        <v>9.156832190284742</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.28662067031614</v>
+        <v>17.83177787964695</v>
       </c>
       <c r="N24">
-        <v>11.33155161490792</v>
+        <v>17.5404379182307</v>
       </c>
       <c r="O24">
-        <v>16.71902657781976</v>
+        <v>23.08081473582297</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.41368235703612</v>
+        <v>13.91092716345117</v>
       </c>
       <c r="C25">
-        <v>13.25629881116536</v>
+        <v>7.501618009458705</v>
       </c>
       <c r="D25">
-        <v>10.99399151057026</v>
+        <v>14.56621023425148</v>
       </c>
       <c r="E25">
-        <v>10.56004869602683</v>
+        <v>15.71395811046676</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.47086849192055</v>
+        <v>31.85317565830668</v>
       </c>
       <c r="H25">
-        <v>9.299497771069515</v>
+        <v>14.89602142528526</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.169238344984825</v>
+        <v>9.192390342024442</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.85637959363541</v>
+        <v>17.5393786873996</v>
       </c>
       <c r="N25">
-        <v>11.63146897298086</v>
+        <v>17.63324486802708</v>
       </c>
       <c r="O25">
-        <v>16.14037795083257</v>
+        <v>23.12701310233107</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_211/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_211/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.24945670553124</v>
+        <v>18.70591123714139</v>
       </c>
       <c r="C2">
-        <v>6.931691617177907</v>
+        <v>12.24086066556013</v>
       </c>
       <c r="D2">
-        <v>14.53418642754317</v>
+        <v>10.52244417123792</v>
       </c>
       <c r="E2">
-        <v>15.73022987164546</v>
+        <v>10.2914396296213</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>31.77039380191395</v>
+        <v>26.13521913262953</v>
       </c>
       <c r="H2">
-        <v>14.94847978023523</v>
+        <v>9.23738538316381</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.221411298107018</v>
+        <v>5.217887406181541</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.3298259617475</v>
+        <v>14.80120311283301</v>
       </c>
       <c r="N2">
-        <v>17.70740358767744</v>
+        <v>11.86305049833646</v>
       </c>
       <c r="O2">
-        <v>23.17966220647659</v>
+        <v>15.76134035906649</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.78469178007335</v>
+        <v>17.45742709164036</v>
       </c>
       <c r="C3">
-        <v>6.514330546989612</v>
+        <v>11.50181478732614</v>
       </c>
       <c r="D3">
-        <v>14.51853349932995</v>
+        <v>10.2056496625053</v>
       </c>
       <c r="E3">
-        <v>15.74717638812273</v>
+        <v>10.12042393011322</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>31.73654461844281</v>
+        <v>25.25907314103726</v>
       </c>
       <c r="H3">
-        <v>14.98965538811909</v>
+        <v>9.210576479584745</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.242858625980887</v>
+        <v>5.254572794604085</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.19200000480822</v>
+        <v>14.0523171464205</v>
       </c>
       <c r="N3">
-        <v>17.76131818696163</v>
+        <v>12.02669335345728</v>
       </c>
       <c r="O3">
-        <v>23.22690651297395</v>
+        <v>15.5331579425654</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.49229289391237</v>
+        <v>16.64547051327981</v>
       </c>
       <c r="C4">
-        <v>6.242824504779835</v>
+        <v>11.02307247326862</v>
       </c>
       <c r="D4">
-        <v>14.51192525340317</v>
+        <v>10.01314066422319</v>
       </c>
       <c r="E4">
-        <v>15.76049987877704</v>
+        <v>10.02094759839207</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>31.7267528106048</v>
+        <v>24.73707140964277</v>
       </c>
       <c r="H4">
-        <v>15.01770552241795</v>
+        <v>9.201258668239007</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.256907866277395</v>
+        <v>5.278875702011974</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.10964036018673</v>
+        <v>13.57706177075479</v>
       </c>
       <c r="N4">
-        <v>17.79623308816923</v>
+        <v>12.13048028175203</v>
       </c>
       <c r="O4">
-        <v>23.26159497780436</v>
+        <v>15.40690760360979</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.37155408816552</v>
+        <v>16.30311876011886</v>
       </c>
       <c r="C5">
-        <v>6.128373176147104</v>
+        <v>10.82173878589997</v>
       </c>
       <c r="D5">
-        <v>14.50998993690901</v>
+        <v>9.935297622623052</v>
       </c>
       <c r="E5">
-        <v>15.7666628728418</v>
+        <v>9.981811813627587</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.7255267115056</v>
+        <v>24.52861649782002</v>
       </c>
       <c r="H5">
-        <v>15.02983133730265</v>
+        <v>9.199197622435097</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.262854836129467</v>
+        <v>5.289218793322107</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.07667767393577</v>
+        <v>13.37973601334697</v>
       </c>
       <c r="N5">
-        <v>17.81091765257753</v>
+        <v>12.17360780093931</v>
       </c>
       <c r="O5">
-        <v>23.27715544443044</v>
+        <v>15.35888911711893</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.35141555796186</v>
+        <v>16.24557684329125</v>
       </c>
       <c r="C6">
-        <v>6.109139298003861</v>
+        <v>10.78793180558186</v>
       </c>
       <c r="D6">
-        <v>14.50971440007858</v>
+        <v>9.922411492867631</v>
       </c>
       <c r="E6">
-        <v>15.76773052726407</v>
+        <v>9.97539826666959</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.72549001377168</v>
+        <v>24.494267619609</v>
       </c>
       <c r="H6">
-        <v>15.03188677772154</v>
+        <v>9.198958458173999</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.263855732844503</v>
+        <v>5.290962585301711</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.07124130399428</v>
+        <v>13.34675685882906</v>
       </c>
       <c r="N6">
-        <v>17.81338361307305</v>
+        <v>12.18081948672589</v>
       </c>
       <c r="O6">
-        <v>23.27982517613977</v>
+        <v>15.35112100795003</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.49067072526217</v>
+        <v>16.64089997029068</v>
       </c>
       <c r="C7">
-        <v>6.241296366693295</v>
+        <v>11.02038243353465</v>
       </c>
       <c r="D7">
-        <v>14.51189608259482</v>
+        <v>10.01208825480461</v>
       </c>
       <c r="E7">
-        <v>15.7605800253892</v>
+        <v>10.02041411176525</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>31.72672508508296</v>
+        <v>24.73424251339911</v>
       </c>
       <c r="H7">
-        <v>15.017866241993</v>
+        <v>9.201223923427063</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.256987170662709</v>
+        <v>5.279013422874714</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.10919334787274</v>
+        <v>13.57441503817218</v>
       </c>
       <c r="N7">
-        <v>17.79642927977709</v>
+        <v>12.1310585374266</v>
       </c>
       <c r="O7">
-        <v>23.26179906863571</v>
+        <v>15.40624620354444</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.09077033324556</v>
+        <v>18.28481533317533</v>
       </c>
       <c r="C8">
-        <v>6.790961166579973</v>
+        <v>11.99123570069595</v>
       </c>
       <c r="D8">
-        <v>14.52816776056279</v>
+        <v>10.41285732097432</v>
       </c>
       <c r="E8">
-        <v>15.735467247391</v>
+        <v>10.2313340460363</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>31.75644226214754</v>
+        <v>25.82996444396572</v>
       </c>
       <c r="H8">
-        <v>14.96210206564654</v>
+        <v>9.226623389384915</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.228623820352407</v>
+        <v>5.230162773026295</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.28185138214938</v>
+        <v>14.54631455299979</v>
       </c>
       <c r="N8">
-        <v>17.72561806706177</v>
+        <v>11.91878820390438</v>
       </c>
       <c r="O8">
-        <v>23.19477098651298</v>
+        <v>15.67975835712234</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.20454493484585</v>
+        <v>21.15133537118812</v>
       </c>
       <c r="C9">
-        <v>7.74721714579625</v>
+        <v>13.69617350161389</v>
       </c>
       <c r="D9">
-        <v>14.58376867579047</v>
+        <v>11.21045655028952</v>
       </c>
       <c r="E9">
-        <v>15.70938109779845</v>
+        <v>10.68816574974049</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>31.90178996949284</v>
+        <v>28.09436619456398</v>
       </c>
       <c r="H9">
-        <v>14.8747521748539</v>
+        <v>9.335725045341157</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.179972486580514</v>
+        <v>5.148843942006997</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.63706424893988</v>
+        <v>16.32173625560706</v>
       </c>
       <c r="N9">
-        <v>17.60108075567433</v>
+        <v>11.5287665899052</v>
       </c>
       <c r="O9">
-        <v>23.10854962499131</v>
+        <v>16.32792759702076</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.9759075274948</v>
+        <v>23.04380828668825</v>
       </c>
       <c r="C10">
-        <v>8.375091116827914</v>
+        <v>14.82730307212301</v>
       </c>
       <c r="D10">
-        <v>14.6388526431153</v>
+        <v>11.79846694981447</v>
       </c>
       <c r="E10">
-        <v>15.70433121979547</v>
+        <v>11.04917570554659</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>32.06127207697141</v>
+        <v>29.81498920337754</v>
       </c>
       <c r="H10">
-        <v>14.8240419817075</v>
+        <v>9.455497243077666</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.148453178649016</v>
+        <v>5.098481612110986</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.90631980182479</v>
+        <v>17.67722433637609</v>
       </c>
       <c r="N10">
-        <v>17.51824934206643</v>
+        <v>11.25825903286939</v>
       </c>
       <c r="O10">
-        <v>23.07295155968842</v>
+        <v>16.87422133635965</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.31514709252121</v>
+        <v>23.8593268731159</v>
       </c>
       <c r="C11">
-        <v>8.644475139881342</v>
+        <v>15.31564806141519</v>
       </c>
       <c r="D11">
-        <v>14.66694700039253</v>
+        <v>12.06549887750248</v>
       </c>
       <c r="E11">
-        <v>15.70509382414728</v>
+        <v>11.21869822590404</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>32.14512075129784</v>
+        <v>30.6076932450343</v>
       </c>
       <c r="H11">
-        <v>14.80390659432912</v>
+        <v>9.519294320667205</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.135026639148213</v>
+        <v>5.077744384171295</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.03020284075776</v>
+        <v>18.30729124678701</v>
       </c>
       <c r="N11">
-        <v>17.48243526676477</v>
+        <v>11.13872116586007</v>
       </c>
       <c r="O11">
-        <v>23.06281185375862</v>
+        <v>17.13821561956878</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.44182769476226</v>
+        <v>24.1616979984557</v>
       </c>
       <c r="C12">
-        <v>8.74414883308606</v>
+        <v>15.49682288566433</v>
       </c>
       <c r="D12">
-        <v>14.67801665040653</v>
+        <v>12.16648859812822</v>
       </c>
       <c r="E12">
-        <v>15.70582172271298</v>
+        <v>11.28363552311894</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>32.17847978429269</v>
+        <v>30.90914197978011</v>
       </c>
       <c r="H12">
-        <v>14.79670432573237</v>
+        <v>9.544847110358926</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.130073096779041</v>
+        <v>5.070216813488637</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.07728046837286</v>
+        <v>18.54108148699543</v>
       </c>
       <c r="N12">
-        <v>17.46914079873826</v>
+        <v>11.09396742851725</v>
       </c>
       <c r="O12">
-        <v>23.05984432373402</v>
+        <v>17.24042217780398</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.41462556350353</v>
+        <v>24.09686248373216</v>
       </c>
       <c r="C13">
-        <v>8.722786216388858</v>
+        <v>15.45797010445105</v>
       </c>
       <c r="D13">
-        <v>14.6756135338914</v>
+        <v>12.14474531499559</v>
       </c>
       <c r="E13">
-        <v>15.70564544352069</v>
+        <v>11.26961735879731</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>32.17122414179639</v>
+        <v>30.84416545015812</v>
       </c>
       <c r="H13">
-        <v>14.79823665721873</v>
+        <v>9.539280990008384</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.131134118453964</v>
+        <v>5.07182333454955</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.06713464414305</v>
+        <v>18.49094307691269</v>
       </c>
       <c r="N13">
-        <v>17.47199211419721</v>
+        <v>11.10358301244446</v>
       </c>
       <c r="O13">
-        <v>23.06044462519634</v>
+        <v>17.21831048979589</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.32560545638383</v>
+        <v>23.88433190338685</v>
       </c>
       <c r="C14">
-        <v>8.652722173666486</v>
+        <v>15.33062846751211</v>
       </c>
       <c r="D14">
-        <v>14.66784910523596</v>
+        <v>12.07381028481758</v>
       </c>
       <c r="E14">
-        <v>15.70514491415857</v>
+        <v>11.22402587129202</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>32.14783311582118</v>
+        <v>30.63246901462961</v>
       </c>
       <c r="H14">
-        <v>14.80330558610528</v>
+        <v>9.521368311472479</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.134616488644646</v>
+        <v>5.077118492870899</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.03407282377475</v>
+        <v>18.32662116796133</v>
       </c>
       <c r="N14">
-        <v>17.48133616557514</v>
+        <v>11.13502892715229</v>
       </c>
       <c r="O14">
-        <v>23.06255022668682</v>
+        <v>17.14657931209254</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.27084307853034</v>
+        <v>23.75331340043208</v>
       </c>
       <c r="C15">
-        <v>8.609501689604116</v>
+        <v>15.25214022404614</v>
       </c>
       <c r="D15">
-        <v>14.66314910985219</v>
+        <v>12.03034195823626</v>
       </c>
       <c r="E15">
-        <v>15.70489548113558</v>
+        <v>11.19619597295474</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>32.13371419310506</v>
+        <v>30.50295972667913</v>
       </c>
       <c r="H15">
-        <v>14.80646550486215</v>
+        <v>9.510579457282711</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.136766565358721</v>
+        <v>5.080404672461463</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.01384205419836</v>
+        <v>18.22534585428096</v>
       </c>
       <c r="N15">
-        <v>17.48709448474142</v>
+        <v>11.15435746328995</v>
       </c>
       <c r="O15">
-        <v>23.06395358733205</v>
+        <v>17.10293359780918</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.95349350770363</v>
+        <v>22.98960564624538</v>
       </c>
       <c r="C16">
-        <v>8.357159327422261</v>
+        <v>14.79486255702431</v>
       </c>
       <c r="D16">
-        <v>14.63707723502574</v>
+        <v>11.78100089807447</v>
       </c>
       <c r="E16">
-        <v>15.70434288339625</v>
+        <v>11.03820194556173</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>32.05601831588091</v>
+        <v>29.76336999897058</v>
       </c>
       <c r="H16">
-        <v>14.82541696587131</v>
+        <v>9.451520088579112</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.149348954569282</v>
+        <v>5.099881624543143</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.89824887075828</v>
+        <v>17.6353722790258</v>
       </c>
       <c r="N16">
-        <v>17.5206273600583</v>
+        <v>11.26614242889143</v>
       </c>
       <c r="O16">
-        <v>23.07373618405859</v>
+        <v>16.85728126262812</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.75574464270238</v>
+        <v>22.5095274117991</v>
       </c>
       <c r="C17">
-        <v>8.198194802401696</v>
+        <v>14.50763509966381</v>
       </c>
       <c r="D17">
-        <v>14.6218567831963</v>
+        <v>11.62787249233638</v>
       </c>
       <c r="E17">
-        <v>15.70478702562093</v>
+        <v>10.94262049000904</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>32.01123697938748</v>
+        <v>29.3120834491389</v>
       </c>
       <c r="H17">
-        <v>14.83779486883489</v>
+        <v>9.417713889190091</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.157301140692931</v>
+        <v>5.112395334969167</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.82766912398725</v>
+        <v>17.26481715549311</v>
       </c>
       <c r="N17">
-        <v>17.54167610958964</v>
+        <v>11.33562397024567</v>
       </c>
       <c r="O17">
-        <v>23.08128937197279</v>
+        <v>16.71055591846896</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.64091294018505</v>
+        <v>22.22912322605264</v>
       </c>
       <c r="C18">
-        <v>8.10523402390748</v>
+        <v>14.33996077231616</v>
       </c>
       <c r="D18">
-        <v>14.6133885552446</v>
+        <v>11.5397572360761</v>
       </c>
       <c r="E18">
-        <v>15.70533055722778</v>
+        <v>10.88814423228534</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>31.98654473654445</v>
+        <v>29.05346305722257</v>
       </c>
       <c r="H18">
-        <v>14.84519032848961</v>
+        <v>9.399142767676301</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.161960864546645</v>
+        <v>5.119796585659748</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.78720715611181</v>
+        <v>17.04849277536357</v>
       </c>
       <c r="N18">
-        <v>17.55395851171429</v>
+        <v>11.37591845202205</v>
       </c>
       <c r="O18">
-        <v>23.08620353721628</v>
+        <v>16.62762025669191</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.60184882482836</v>
+        <v>22.13344650372237</v>
       </c>
       <c r="C19">
-        <v>8.073496633699468</v>
+        <v>14.28276467351894</v>
       </c>
       <c r="D19">
-        <v>14.61057067455327</v>
+        <v>11.50991819607273</v>
       </c>
       <c r="E19">
-        <v>15.70556408734331</v>
+        <v>10.86978593065023</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>31.9783677315074</v>
+        <v>28.96606704061848</v>
       </c>
       <c r="H19">
-        <v>14.8477416843854</v>
+        <v>9.393003189833189</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.163553319112287</v>
+        <v>5.122337136755067</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.77353145009333</v>
+        <v>16.97469906134482</v>
       </c>
       <c r="N19">
-        <v>17.55814732757712</v>
+        <v>11.38961806756243</v>
       </c>
       <c r="O19">
-        <v>23.08796519087189</v>
+        <v>16.59978949621851</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.77690915077335</v>
+        <v>22.56107454886255</v>
       </c>
       <c r="C20">
-        <v>8.215275065043553</v>
+        <v>14.5384663403534</v>
       </c>
       <c r="D20">
-        <v>14.62344744807141</v>
+        <v>11.64417789217057</v>
       </c>
       <c r="E20">
-        <v>15.70470993708845</v>
+        <v>10.95274372838821</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>32.01589394378112</v>
+        <v>29.36002690698981</v>
       </c>
       <c r="H20">
-        <v>14.83644864705499</v>
+        <v>9.421221827948644</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.156445735399547</v>
+        <v>5.111042058731799</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.83516888196758</v>
+        <v>17.30459315594154</v>
       </c>
       <c r="N20">
-        <v>17.53941725420432</v>
+        <v>11.32819328953796</v>
       </c>
       <c r="O20">
-        <v>23.08042633980791</v>
+        <v>16.7260242108654</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.35180196239125</v>
+        <v>23.94693165488035</v>
       </c>
       <c r="C21">
-        <v>8.67336508255168</v>
+        <v>15.36813341140691</v>
       </c>
       <c r="D21">
-        <v>14.67011805890918</v>
+        <v>12.09464959191725</v>
       </c>
       <c r="E21">
-        <v>15.70528002249162</v>
+        <v>11.23739717840532</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>32.15466015790989</v>
+        <v>30.69461610816183</v>
       </c>
       <c r="H21">
-        <v>14.80180524437644</v>
+        <v>9.526591428877742</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.13359008478163</v>
+        <v>5.075554244850915</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.04377966194361</v>
+        <v>18.37501628909116</v>
       </c>
       <c r="N21">
-        <v>17.47858433662106</v>
+        <v>11.12577852041837</v>
       </c>
       <c r="O21">
-        <v>23.06190808029304</v>
+        <v>17.16758768975416</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.7171003843239</v>
+        <v>24.81512327074443</v>
       </c>
       <c r="C22">
-        <v>8.959137236163164</v>
+        <v>15.88851903220108</v>
       </c>
       <c r="D22">
-        <v>14.703128766775</v>
+        <v>12.38828225823524</v>
       </c>
       <c r="E22">
-        <v>15.70821153413186</v>
+        <v>11.42775705656073</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>32.2547106447409</v>
+        <v>31.57419141316775</v>
       </c>
       <c r="H22">
-        <v>14.7816271407782</v>
+        <v>9.603607668096299</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.119414838134237</v>
+        <v>5.054262924770259</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.18106904522764</v>
+        <v>19.04664056265226</v>
       </c>
       <c r="N22">
-        <v>17.44038559446144</v>
+        <v>10.99648180437334</v>
       </c>
       <c r="O22">
-        <v>23.05488929144638</v>
+        <v>17.46922187198177</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.52311945120581</v>
+        <v>24.35516221632246</v>
       </c>
       <c r="C23">
-        <v>8.807860945543542</v>
+        <v>15.61277099760998</v>
       </c>
       <c r="D23">
-        <v>14.68528279425234</v>
+        <v>12.2316543288866</v>
       </c>
       <c r="E23">
-        <v>15.70641314331269</v>
+        <v>11.32576861801021</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>32.20046202838359</v>
+        <v>31.10411949615764</v>
       </c>
       <c r="H23">
-        <v>14.79217092623668</v>
+        <v>9.56173899788768</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.12691079063781</v>
+        <v>5.065447980821155</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.10771978227553</v>
+        <v>18.6907176002896</v>
       </c>
       <c r="N23">
-        <v>17.46063059527936</v>
+        <v>11.06521315961134</v>
       </c>
       <c r="O23">
-        <v>23.05816977693841</v>
+        <v>17.30703697488493</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.76734422944523</v>
+        <v>22.53778380154177</v>
       </c>
       <c r="C24">
-        <v>8.207557968312425</v>
+        <v>14.52453545999062</v>
       </c>
       <c r="D24">
-        <v>14.6227274289986</v>
+        <v>11.63680646417297</v>
       </c>
       <c r="E24">
-        <v>15.70474389107266</v>
+        <v>10.94816553196921</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>32.01378524838543</v>
+        <v>29.33834907053064</v>
       </c>
       <c r="H24">
-        <v>14.8370564041518</v>
+        <v>9.419633200265864</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.156832190284742</v>
+        <v>5.111653231258544</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.83177787964695</v>
+        <v>17.28662067031616</v>
       </c>
       <c r="N24">
-        <v>17.5404379182307</v>
+        <v>11.33155161490792</v>
       </c>
       <c r="O24">
-        <v>23.08081473582297</v>
+        <v>16.71902657781978</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.91092716345117</v>
+        <v>20.41368235703608</v>
       </c>
       <c r="C25">
-        <v>7.501618009458705</v>
+        <v>13.25629881116536</v>
       </c>
       <c r="D25">
-        <v>14.56621023425148</v>
+        <v>10.99399151057028</v>
       </c>
       <c r="E25">
-        <v>15.71395811046676</v>
+        <v>10.5600486960268</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>31.85317565830668</v>
+        <v>27.47086849192066</v>
       </c>
       <c r="H25">
-        <v>14.89602142528526</v>
+        <v>9.299497771069607</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.192390342024442</v>
+        <v>5.169238344984828</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.5393786873996</v>
+        <v>15.85637959363543</v>
       </c>
       <c r="N25">
-        <v>17.63324486802708</v>
+        <v>11.63146897298092</v>
       </c>
       <c r="O25">
-        <v>23.12701310233107</v>
+        <v>16.14037795083266</v>
       </c>
     </row>
   </sheetData>
